--- a/detector_PT/tabela_metricas.xlsx
+++ b/detector_PT/tabela_metricas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Poli\PTC-3456\Parte_B\deteccao-eventos-ecg\detector_PT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C5C0B1-702F-4B5A-B47D-19459D9DE0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9822162-9616-4923-BB2E-8CB69D665203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,28 +37,28 @@
     <t>Nd</t>
   </si>
   <si>
-    <t>FP</t>
-  </si>
-  <si>
-    <t>%FP</t>
-  </si>
-  <si>
-    <t>FN</t>
-  </si>
-  <si>
-    <t>%FN</t>
-  </si>
-  <si>
-    <t>Media IRR [s]</t>
-  </si>
-  <si>
-    <t>DP IRR [s]</t>
-  </si>
-  <si>
-    <t>Media  sinal normalizado</t>
-  </si>
-  <si>
-    <t>DP sinal normalizado</t>
+    <t>Media_norm</t>
+  </si>
+  <si>
+    <t>DP_norm</t>
+  </si>
+  <si>
+    <t>FP_T</t>
+  </si>
+  <si>
+    <t>p_FP</t>
+  </si>
+  <si>
+    <t>FN_T</t>
+  </si>
+  <si>
+    <t>p_FN</t>
+  </si>
+  <si>
+    <t>Media_IRR</t>
+  </si>
+  <si>
+    <t>DP_IRR</t>
   </si>
 </sst>
 </file>
@@ -66,7 +66,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -82,7 +82,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -105,22 +105,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -440,432 +445,432 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
     <col min="6" max="7" width="4.140625" customWidth="1"/>
     <col min="8" max="8" width="5.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
     <col min="10" max="10" width="5.5703125" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="3">
+      <c r="A2" s="1">
         <v>111</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>-0.16422835648148121</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>0.25602139754412512</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>-0.11772642041683003</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>0.25602139754412512</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="1">
         <v>137</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="1">
         <v>137</v>
       </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0</v>
-      </c>
-      <c r="L2" s="4">
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
         <v>0.87120098039215688</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="2">
         <v>2.8674435144500018E-2</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>112</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>-0.85927511574073845</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>0.22419512617278087</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>-0.53704694733795877</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>0.22419512617278087</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="1">
         <v>171</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="1">
         <v>171</v>
       </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4">
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
         <v>0.69758169934640535</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="2">
         <v>1.4223697809904666E-2</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>113</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>-0.13729189814814916</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>0.44754001272665295</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>-5.4373028969565917E-2</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>0.44754001272665295</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="1">
         <v>115</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="1">
         <v>115</v>
       </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="L4" s="4">
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
         <v>1.0340643274853802</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="2">
         <v>7.6742880184878681E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>114</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>-0.15749780092592733</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>0.13008589328845926</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>-0.12304515697337963</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>0.13008589328845926</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="1">
         <v>109</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="1">
         <v>109</v>
       </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="L5" s="4">
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
         <v>1.0877829218106996</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="2">
         <v>8.5194633764723193E-2</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>115</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>-0.53247268518518898</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>0.35830178148994457</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>-0.24537911759686026</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>0.35830178148994457</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="1">
         <v>125</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="1">
         <v>125</v>
       </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4">
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
         <v>0.95463709677419362</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="2">
         <v>6.2657732084052106E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <v>116</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>-0.94569178240740059</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>0.60870770778934735</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>-0.35889631210905493</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>0.60870770778934735</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="1">
         <v>155</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="1">
         <v>155</v>
       </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="4">
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
         <v>0.76489898989898986</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="2">
         <v>4.7971666446694802E-2</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="3">
+      <c r="A8" s="1">
         <v>117</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="2">
         <v>-0.81723750000000073</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>0.22942069794590741</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <v>-0.41484137055838521</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <v>0.22942069794590741</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="1">
         <v>99</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="1">
         <v>99</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="4">
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
         <v>1.2051587301587301</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="2">
         <v>3.2080801162576097E-2</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="3">
+      <c r="A9" s="1">
         <v>118</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="2">
         <v>-0.93707638888889622</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>0.4225777437749535</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="2">
         <v>-0.35903309919114734</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <v>0.4225777437749535</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="1">
         <v>146</v>
       </c>
-      <c r="G9" s="3">
-        <v>145</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1</v>
+      <c r="G9" s="1">
+        <v>146</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
       </c>
       <c r="I9" s="4">
-        <v>0.68493150684931503</v>
-      </c>
-      <c r="J9" s="3">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
       </c>
       <c r="K9" s="4">
-        <v>1.3698630136986301</v>
-      </c>
-      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
         <v>0.82003831417624529</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="2">
         <v>4.6355501734249696E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="3">
+      <c r="A10" s="1">
         <v>119</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="2">
         <v>-0.88172337962963676</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>0.51919924907228343</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="2">
         <v>-0.34919737807113149</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <v>0.51919924907228343</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="1">
         <v>129</v>
       </c>
-      <c r="G10" s="3">
-        <v>109</v>
-      </c>
-      <c r="H10" s="3">
-        <v>5</v>
+      <c r="G10" s="1">
+        <v>129</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
       </c>
       <c r="I10" s="4">
-        <v>3.8759689922480618</v>
-      </c>
-      <c r="J10" s="3">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
       </c>
       <c r="K10" s="4">
-        <v>19.379844961240313</v>
-      </c>
-      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
         <v>0.92065972222222237</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="2">
         <v>0.24366792623863634</v>
       </c>
     </row>

--- a/detector_PT/tabela_metricas.xlsx
+++ b/detector_PT/tabela_metricas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Poli\PTC-3456\Parte_B\deteccao-eventos-ecg\detector_PT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9822162-9616-4923-BB2E-8CB69D665203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330F4A2D-CC7E-41F6-9E59-ADC714859E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,28 +37,28 @@
     <t>Nd</t>
   </si>
   <si>
-    <t>Media_norm</t>
-  </si>
-  <si>
-    <t>DP_norm</t>
-  </si>
-  <si>
-    <t>FP_T</t>
-  </si>
-  <si>
-    <t>p_FP</t>
-  </si>
-  <si>
-    <t>FN_T</t>
-  </si>
-  <si>
-    <t>p_FN</t>
-  </si>
-  <si>
-    <t>Media_IRR</t>
-  </si>
-  <si>
-    <t>DP_IRR</t>
+    <t>Media IRR [s]</t>
+  </si>
+  <si>
+    <t>DP IRR [s]</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>%FP</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>%FN</t>
+  </si>
+  <si>
+    <t>Media sinal normalizado</t>
+  </si>
+  <si>
+    <t>DP sinal normalizado</t>
   </si>
 </sst>
 </file>
@@ -74,15 +74,21 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -105,18 +111,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -124,9 +123,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -445,7 +449,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -454,55 +458,55 @@
     <col min="2" max="2" width="7.85546875" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="7" width="4.140625" customWidth="1"/>
     <col min="8" max="8" width="5.28515625" customWidth="1"/>
     <col min="9" max="9" width="6.7109375" customWidth="1"/>
     <col min="10" max="10" width="5.5703125" customWidth="1"/>
     <col min="11" max="11" width="6.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:13" ht="29.25" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -817,13 +821,13 @@
       <c r="H9" s="1">
         <v>0</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>0</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <v>0</v>
       </c>
       <c r="L9" s="2">
@@ -858,13 +862,13 @@
       <c r="H10" s="1">
         <v>0</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>0</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <v>0</v>
       </c>
       <c r="L10" s="2">

--- a/detector_PT/tabela_metricas.xlsx
+++ b/detector_PT/tabela_metricas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Poli\PTC-3456\Parte_B\deteccao-eventos-ecg\detector_PT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330F4A2D-CC7E-41F6-9E59-ADC714859E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECA5806-EEBE-4504-96A3-519D4478E4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,9 +37,6 @@
     <t>Nd</t>
   </si>
   <si>
-    <t>Media IRR [s]</t>
-  </si>
-  <si>
     <t>DP IRR [s]</t>
   </si>
   <si>
@@ -59,6 +56,9 @@
   </si>
   <si>
     <t>DP sinal normalizado</t>
+  </si>
+  <si>
+    <t>Média IRR [s]</t>
   </si>
 </sst>
 </file>
@@ -74,18 +74,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -115,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -123,13 +117,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -449,64 +440,64 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="M10" sqref="A1:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
     <col min="6" max="7" width="4.140625" customWidth="1"/>
     <col min="8" max="8" width="5.28515625" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
     <col min="10" max="10" width="5.5703125" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -514,34 +505,34 @@
         <v>111</v>
       </c>
       <c r="B2" s="2">
-        <v>-0.16422835648148121</v>
+        <v>9.6270717592591065E-2</v>
       </c>
       <c r="C2" s="2">
-        <v>0.25602139754412512</v>
+        <v>0.27209685842077169</v>
       </c>
       <c r="D2" s="2">
-        <v>-0.11772642041683003</v>
+        <v>7.3770664821913495E-2</v>
       </c>
       <c r="E2" s="2">
-        <v>0.25602139754412512</v>
+        <v>0.27209685842077169</v>
       </c>
       <c r="F2" s="1">
         <v>137</v>
       </c>
       <c r="G2" s="1">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1.4598540145985401</v>
       </c>
       <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.72992700729927007</v>
       </c>
       <c r="L2" s="2">
         <v>0.87120098039215688</v>
@@ -555,16 +546,16 @@
         <v>112</v>
       </c>
       <c r="B3" s="2">
-        <v>-0.85927511574073845</v>
+        <v>-0.58983391203703694</v>
       </c>
       <c r="C3" s="2">
-        <v>0.22419512617278087</v>
+        <v>8.6159111627653315E-2</v>
       </c>
       <c r="D3" s="2">
-        <v>-0.53704694733795877</v>
+        <v>-0.68986422460477415</v>
       </c>
       <c r="E3" s="2">
-        <v>0.22419512617278087</v>
+        <v>8.6159111627653315E-2</v>
       </c>
       <c r="F3" s="1">
         <v>171</v>
@@ -575,13 +566,13 @@
       <c r="H3" s="1">
         <v>0</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="2">
         <v>0</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="2">
         <v>0</v>
       </c>
       <c r="L3" s="2">
@@ -596,16 +587,16 @@
         <v>113</v>
       </c>
       <c r="B4" s="2">
-        <v>-0.13729189814814916</v>
+        <v>7.3401157407406908E-2</v>
       </c>
       <c r="C4" s="2">
-        <v>0.44754001272665295</v>
+        <v>0.19589893666734953</v>
       </c>
       <c r="D4" s="2">
-        <v>-5.4373028969565917E-2</v>
+        <v>7.2674413274660191E-2</v>
       </c>
       <c r="E4" s="2">
-        <v>0.44754001272665295</v>
+        <v>0.19589893666734953</v>
       </c>
       <c r="F4" s="1">
         <v>115</v>
@@ -616,13 +607,13 @@
       <c r="H4" s="1">
         <v>0</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="2">
         <v>0</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="2">
         <v>0</v>
       </c>
       <c r="L4" s="2">
@@ -637,16 +628,16 @@
         <v>114</v>
       </c>
       <c r="B5" s="2">
-        <v>-0.15749780092592733</v>
+        <v>5.3391203703702386E-2</v>
       </c>
       <c r="C5" s="2">
-        <v>0.13008589328845926</v>
+        <v>0.30609023156334925</v>
       </c>
       <c r="D5" s="2">
-        <v>-0.12304515697337963</v>
+        <v>2.1792328042328023E-2</v>
       </c>
       <c r="E5" s="2">
-        <v>0.13008589328845926</v>
+        <v>0.30609023156334925</v>
       </c>
       <c r="F5" s="1">
         <v>109</v>
@@ -657,13 +648,13 @@
       <c r="H5" s="1">
         <v>0</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="2">
         <v>0</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="2">
         <v>0</v>
       </c>
       <c r="L5" s="2">
@@ -678,16 +669,16 @@
         <v>115</v>
       </c>
       <c r="B6" s="2">
-        <v>-0.53247268518518898</v>
+        <v>-0.20332141203703491</v>
       </c>
       <c r="C6" s="2">
-        <v>0.35830178148994457</v>
+        <v>0.10662357210845412</v>
       </c>
       <c r="D6" s="2">
-        <v>-0.24537911759686026</v>
+        <v>-0.23236732804232091</v>
       </c>
       <c r="E6" s="2">
-        <v>0.35830178148994457</v>
+        <v>0.10662357210845412</v>
       </c>
       <c r="F6" s="1">
         <v>125</v>
@@ -698,13 +689,13 @@
       <c r="H6" s="1">
         <v>0</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="2">
         <v>0</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="2">
         <v>0</v>
       </c>
       <c r="L6" s="2">
@@ -719,34 +710,34 @@
         <v>116</v>
       </c>
       <c r="B7" s="2">
-        <v>-0.94569178240740059</v>
+        <v>-0.72907604166666429</v>
       </c>
       <c r="C7" s="2">
-        <v>0.60870770778934735</v>
+        <v>0.21613830132624814</v>
       </c>
       <c r="D7" s="2">
-        <v>-0.35889631210905493</v>
+        <v>-0.36272439883914359</v>
       </c>
       <c r="E7" s="2">
-        <v>0.60870770778934735</v>
+        <v>0.21613830132624814</v>
       </c>
       <c r="F7" s="1">
         <v>155</v>
       </c>
       <c r="G7" s="1">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="2">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.64516129032258063</v>
       </c>
       <c r="L7" s="2">
         <v>0.76489898989898986</v>
@@ -760,16 +751,16 @@
         <v>117</v>
       </c>
       <c r="B8" s="2">
-        <v>-0.81723750000000073</v>
+        <v>-0.45356817129629212</v>
       </c>
       <c r="C8" s="2">
-        <v>0.22942069794590741</v>
+        <v>0.29005955821137241</v>
       </c>
       <c r="D8" s="2">
-        <v>-0.41484137055838521</v>
+        <v>-0.33722540616826058</v>
       </c>
       <c r="E8" s="2">
-        <v>0.22942069794590741</v>
+        <v>0.29005955821137241</v>
       </c>
       <c r="F8" s="1">
         <v>99</v>
@@ -780,13 +771,13 @@
       <c r="H8" s="1">
         <v>0</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="2">
         <v>0</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="2">
         <v>0</v>
       </c>
       <c r="L8" s="2">
@@ -801,16 +792,16 @@
         <v>118</v>
       </c>
       <c r="B9" s="2">
-        <v>-0.93707638888889622</v>
+        <v>-0.52341793981480744</v>
       </c>
       <c r="C9" s="2">
-        <v>0.4225777437749535</v>
+        <v>0.35066262881125676</v>
       </c>
       <c r="D9" s="2">
-        <v>-0.35903309919114734</v>
+        <v>-0.20015982402096141</v>
       </c>
       <c r="E9" s="2">
-        <v>0.4225777437749535</v>
+        <v>0.35066262881125676</v>
       </c>
       <c r="F9" s="1">
         <v>146</v>
@@ -821,13 +812,13 @@
       <c r="H9" s="1">
         <v>0</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <v>0</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="2">
         <v>0</v>
       </c>
       <c r="L9" s="2">
@@ -842,16 +833,16 @@
         <v>119</v>
       </c>
       <c r="B10" s="2">
-        <v>-0.88172337962963676</v>
+        <v>-0.48803194444444653</v>
       </c>
       <c r="C10" s="2">
-        <v>0.51919924907228343</v>
+        <v>0.29643192756627967</v>
       </c>
       <c r="D10" s="2">
-        <v>-0.34919737807113149</v>
+        <v>-0.18698541932737839</v>
       </c>
       <c r="E10" s="2">
-        <v>0.51919924907228343</v>
+        <v>0.29643192756627967</v>
       </c>
       <c r="F10" s="1">
         <v>129</v>
@@ -862,13 +853,13 @@
       <c r="H10" s="1">
         <v>0</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <v>0</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="2">
         <v>0</v>
       </c>
       <c r="L10" s="2">
@@ -880,5 +871,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>